--- a/Files Input/json_data.xlsx
+++ b/Files Input/json_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gsrsr\Documents\pythonProject\Files InPut\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gsrsr\Documents\pythonProject\Files Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A89CDC8E-8885-41BA-8A43-EE3F7AF654A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{746CAED4-3E6E-4DA8-9875-D952488F433A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3C0FFB9A-7317-4B59-B643-1E0804507511}"/>
   </bookViews>
@@ -28,46 +28,46 @@
     <t>json_data</t>
   </si>
   <si>
-    <t>'[{"key":"code","value":{"str_value":"XYZ123","int_value":null}},{"key":"code","value":{"str_value":null,"int_value":"123"}}]'</t>
-  </si>
-  <si>
-    <t>'{"name":"adkf","age":"23","city":"hyd"}'</t>
-  </si>
-  <si>
-    <t>'[{"key":"name","value":{"str_value":"Alice","int_value":"25","float_value":null}}]'</t>
-  </si>
-  <si>
-    <t>'[{"name":"adkf","age":"23","city":"hyd"},{"name":"adkf","age":"23","city":"hyd"}]'</t>
-  </si>
-  <si>
-    <t>'[{"key":"name","value":{"str_value":"Bob","int_value":30,"float_value":45.7}}]'</t>
-  </si>
-  <si>
-    <t>'[{"name":"adkf","age":"23","addr":{"cityname":"adkf","area":"23","road":"asdfrd"}]'</t>
-  </si>
-  <si>
-    <t>'[{"key":"age","value":{"int_value":null,"float_value":null}}]'</t>
-  </si>
-  <si>
-    <t>'[{"key":"status","value":{"str_value":"active","int_value":null}}]'</t>
-  </si>
-  <si>
-    <t>'[{"key":"price","value":{"float_value":"99.99","int_value":null}}]'</t>
-  </si>
-  <si>
-    <t>'[{"key":"name","value":{"str_value":"Charlie","int_value":null,"float_value":null}}]'</t>
-  </si>
-  <si>
-    <t>'[{"key":"category","value":{"str_value":"electronics","int_value":null}}]'</t>
-  </si>
-  <si>
-    <t>'[{"key":"location","value":{"str_value":"NYC","int_value":null}}]'</t>
-  </si>
-  <si>
-    <t>'[{"key":"quantity","value":{"int_value":"50","float_value":null}}]'</t>
-  </si>
-  <si>
-    <t>'[{"key":"discount","value":{"float_value":"5.5","int_value":null}},{"key":"discount1","value":{"float_value":null,"int_value":"123"}}]'</t>
+    <t>[{"key":"code","value":{"str_value":"XYZ123","int_value":null}},{"key":"code","value":{"str_value":null,"int_value":"123"}}]</t>
+  </si>
+  <si>
+    <t>{"name":"adkf","age":"23","city":"hyd"}</t>
+  </si>
+  <si>
+    <t>[{"key":"name","value":{"str_value":"Alice","int_value":"25","float_value":null}}]</t>
+  </si>
+  <si>
+    <t>[{"name":"adkf","age":"23","city":"hyd"},{"name":"adkf","age":"23","city":"hyd"}]</t>
+  </si>
+  <si>
+    <t>[{"key":"name","value":{"str_value":"Bob","int_value":30,"float_value":45.7}}]</t>
+  </si>
+  <si>
+    <t>[{"name":"adkf","age":"23","addr":{"cityname":"adkf","area":"23","road":"asdfrd"}]</t>
+  </si>
+  <si>
+    <t>[{"key":"age","value":{"int_value":null,"float_value":null}}]</t>
+  </si>
+  <si>
+    <t>[{"key":"status","value":{"str_value":"active","int_value":null}}]</t>
+  </si>
+  <si>
+    <t>[{"key":"price","value":{"float_value":"99.99","int_value":null}}]</t>
+  </si>
+  <si>
+    <t>[{"key":"name","value":{"str_value":"Charlie","int_value":null,"float_value":null}}]</t>
+  </si>
+  <si>
+    <t>[{"key":"category","value":{"str_value":"electronics","int_value":null}}]</t>
+  </si>
+  <si>
+    <t>[{"key":"location","value":{"str_value":"NYC","int_value":null}}]</t>
+  </si>
+  <si>
+    <t>[{"key":"quantity","value":{"int_value":"50","float_value":null}}]</t>
+  </si>
+  <si>
+    <t>[{"key":"discount","value":{"float_value":"5.5","int_value":null}},{"key":"discount1","value":{"float_value":null,"int_value":"123"}}]</t>
   </si>
 </sst>
 </file>
@@ -932,7 +932,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Files Input/json_data.xlsx
+++ b/Files Input/json_data.xlsx
@@ -8,22 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gsrsr\Documents\pythonProject\Files Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{746CAED4-3E6E-4DA8-9875-D952488F433A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54CD11BA-96BC-442B-8958-5D68BEC6522C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3C0FFB9A-7317-4B59-B643-1E0804507511}"/>
   </bookViews>
   <sheets>
-    <sheet name="json_data1" sheetId="1" r:id="rId1"/>
+    <sheet name="json_data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>json_data</t>
   </si>
@@ -74,7 +71,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,8 +206,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -388,6 +393,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -551,9 +562,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -929,139 +941,94 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9060E8B8-E7FA-4154-9CA1-DDA7BE210E45}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.08984375" customWidth="1"/>
+    <col min="1" max="1" width="106" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>